--- a/NformTester/NformTester/keywordscripts/TST1328_ImportDeviceUsingDialogEnterPathnameOfFlatFile.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1328_ImportDeviceUsingDialogEnterPathnameOfFlatFile.xlsx
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7454" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7454" uniqueCount="832">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3592,9 +3592,6 @@
     <t>.NET Framework</t>
   </si>
   <si>
-    <t>10.146.85.10</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -3643,9 +3640,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -3653,12 +3647,6 @@
   </si>
   <si>
     <t>;Create some devices.</t>
-  </si>
-  <si>
-    <t>10.146.85.11</t>
-  </si>
-  <si>
-    <t>"ABC GXT UPS_11"</t>
   </si>
   <si>
     <t>;Export device file.</t>
@@ -3739,6 +3727,25 @@
   </si>
   <si>
     <t>;Prerequisites N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_1$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_1_NAME$</t>
+  </si>
+  <si>
+    <t>$GXT_1_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4697,7 +4704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4768,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4787,13 +4796,13 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -4803,13 +4812,13 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>795</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -4828,7 +4837,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4859,7 +4868,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4884,7 +4893,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4909,7 +4918,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>577</v>
@@ -4919,22 +4928,22 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>799</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>800</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="2"/>
@@ -4944,13 +4953,13 @@
         <v>765</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>577</v>
@@ -4960,22 +4969,22 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>799</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>800</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="2"/>
@@ -4991,7 +5000,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>756</v>
@@ -5016,7 +5025,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -5039,7 +5048,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
@@ -5068,7 +5077,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>19</v>
@@ -5097,10 +5106,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>578</v>
@@ -5126,10 +5135,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>578</v>
@@ -5138,7 +5147,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -5157,10 +5166,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>89</v>
@@ -5186,7 +5195,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>594</v>
@@ -5198,7 +5207,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5217,7 +5226,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>594</v>
@@ -5229,7 +5238,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="I17" s="5" t="b">
         <v>1</v>
@@ -5250,7 +5259,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>594</v>
@@ -5281,7 +5290,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>594</v>
@@ -5310,7 +5319,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>599</v>
@@ -5339,7 +5348,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="5"/>
@@ -5358,10 +5367,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>578</v>
@@ -5383,10 +5392,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>578</v>
@@ -5395,7 +5404,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -5410,10 +5419,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>184</v>
@@ -5435,7 +5444,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>585</v>
@@ -5460,7 +5469,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -5479,10 +5488,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>183</v>
@@ -5504,7 +5513,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>602</v>
@@ -5529,7 +5538,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>602</v>
@@ -5554,7 +5563,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>602</v>
@@ -5566,7 +5575,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -5581,7 +5590,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>602</v>
@@ -5593,7 +5602,7 @@
         <v>7</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="I31" s="5" t="b">
         <v>1</v>
@@ -5610,7 +5619,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>602</v>
@@ -5635,7 +5644,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>602</v>
@@ -5660,7 +5669,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>599</v>
@@ -5685,7 +5694,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>599</v>
@@ -5710,7 +5719,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>602</v>
@@ -5735,7 +5744,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>599</v>
@@ -5760,7 +5769,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>599</v>
@@ -5785,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="5"/>
@@ -5804,7 +5813,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>602</v>
@@ -5816,7 +5825,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -5831,7 +5840,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>602</v>
@@ -5843,7 +5852,7 @@
         <v>7</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="I41" s="5" t="b">
         <v>1</v>
@@ -5860,7 +5869,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>602</v>
@@ -5885,7 +5894,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>602</v>
@@ -5910,7 +5919,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>599</v>
@@ -5935,7 +5944,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>599</v>
@@ -5960,7 +5969,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>602</v>
@@ -5985,7 +5994,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>599</v>
@@ -6010,7 +6019,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>599</v>
@@ -6035,7 +6044,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="5"/>
@@ -6054,7 +6063,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>602</v>
@@ -6066,7 +6075,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -6081,7 +6090,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>602</v>
@@ -6093,7 +6102,7 @@
         <v>7</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="I51" s="5" t="b">
         <v>1</v>
@@ -6110,7 +6119,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>602</v>
@@ -6135,7 +6144,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>602</v>
@@ -6160,7 +6169,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>599</v>
@@ -6185,7 +6194,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>599</v>
@@ -6210,7 +6219,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>602</v>
@@ -6222,7 +6231,7 @@
         <v>7</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="I56" s="5" t="b">
         <v>0</v>
@@ -6239,7 +6248,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>602</v>
@@ -6264,7 +6273,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>602</v>
@@ -6291,7 +6300,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>622</v>
@@ -6316,7 +6325,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>622</v>
@@ -6341,10 +6350,10 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>99</v>
@@ -6366,10 +6375,10 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F62" s="11">
         <v>2</v>
@@ -6389,7 +6398,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -6408,7 +6417,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>19</v>
@@ -6433,13 +6442,13 @@
         <v>64</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>2</v>
@@ -6458,10 +6467,10 @@
         <v>65</v>
       </c>
       <c r="D66" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E66" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>578</v>
@@ -6470,7 +6479,7 @@
         <v>59</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>803</v>
+        <v>828</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -6485,10 +6494,10 @@
         <v>66</v>
       </c>
       <c r="D67" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>578</v>
@@ -6497,7 +6506,7 @@
         <v>59</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>808</v>
+        <v>830</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -6512,10 +6521,10 @@
         <v>67</v>
       </c>
       <c r="D68" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>99</v>
@@ -6537,7 +6546,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="5"/>
@@ -6556,7 +6565,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
@@ -6574,7 +6583,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>19</v>
@@ -6598,7 +6607,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>19</v>
@@ -6622,10 +6631,10 @@
         <v>72</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>578</v>
@@ -6634,7 +6643,7 @@
         <v>3</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -6648,10 +6657,10 @@
         <v>73</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>184</v>
@@ -6672,7 +6681,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>585</v>
@@ -6696,10 +6705,10 @@
         <v>75</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>99</v>

--- a/NformTester/NformTester/keywordscripts/TST1328_ImportDeviceUsingDialogEnterPathnameOfFlatFile.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1328_ImportDeviceUsingDialogEnterPathnameOfFlatFile.xlsx
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7454" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7459" uniqueCount="834">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3746,6 +3746,14 @@
   </si>
   <si>
     <t>$GXT_1_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4704,8 +4712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5240,10 +5248,12 @@
       <c r="H17" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="I17" s="5" t="b">
+      <c r="I17" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="J17" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -5604,10 +5614,12 @@
       <c r="H31" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="I31" s="5" t="b">
+      <c r="I31" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="J31" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -5854,10 +5866,12 @@
       <c r="H41" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="I41" s="5" t="b">
+      <c r="I41" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="J41" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -6104,10 +6118,12 @@
       <c r="H51" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="I51" s="5" t="b">
+      <c r="I51" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="J51" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -6219,7 +6235,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>602</v>
@@ -6233,10 +6249,12 @@
       <c r="H56" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="I56" s="5" t="b">
+      <c r="I56" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="J56" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>

--- a/NformTester/NformTester/keywordscripts/TST1328_ImportDeviceUsingDialogEnterPathnameOfFlatFile.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1328_ImportDeviceUsingDialogEnterPathnameOfFlatFile.xlsx
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7459" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7459" uniqueCount="833">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3640,9 +3640,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>;Clear operation.</t>
   </si>
   <si>
@@ -3730,31 +3727,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMPdevice_1$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_1_NAME$</t>
-  </si>
-  <si>
-    <t>$GXT_1_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Equal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_1$</t>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_1_NAME$</t>
   </si>
 </sst>
 </file>
@@ -4712,8 +4708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4804,7 +4800,7 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4845,7 +4841,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4876,7 +4872,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4895,13 +4891,13 @@
         <v>773</v>
       </c>
       <c r="B6" s="10">
-        <v>41114</v>
+        <v>41446</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4939,10 +4935,10 @@
         <v>796</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>797</v>
@@ -4958,11 +4954,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>802</v>
-      </c>
+        <v>828</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4980,10 +4974,10 @@
         <v>796</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>797</v>
@@ -4999,11 +4993,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>776</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -5027,13 +5019,17 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>776</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -5048,10 +5044,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -5078,7 +5072,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -5107,7 +5101,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -5136,7 +5130,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -5155,7 +5149,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -5167,7 +5161,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -5196,7 +5190,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -5215,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5226,10 +5220,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>783</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -5246,10 +5240,10 @@
         <v>7</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="J17" s="5" t="b">
         <v>1</v>
@@ -5263,7 +5257,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5290,11 +5284,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>785</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5322,9 +5314,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>785</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>776</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5351,14 +5345,14 @@
     </row>
     <row r="21" spans="1:15" ht="15">
       <c r="A21" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="5"/>
@@ -5373,6 +5367,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5414,7 +5412,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -5479,7 +5477,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -5585,7 +5583,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -5612,10 +5610,10 @@
         <v>7</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="J31" s="5" t="b">
         <v>1</v>
@@ -5806,7 +5804,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="5"/>
@@ -5837,7 +5835,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -5864,10 +5862,10 @@
         <v>7</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="J41" s="5" t="b">
         <v>1</v>
@@ -6058,7 +6056,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="5"/>
@@ -6089,7 +6087,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -6116,10 +6114,10 @@
         <v>7</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="J51" s="5" t="b">
         <v>1</v>
@@ -6235,7 +6233,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>602</v>
@@ -6247,10 +6245,10 @@
         <v>7</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="J56" s="5" t="b">
         <v>0</v>
@@ -6393,10 +6391,10 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>818</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>819</v>
       </c>
       <c r="F62" s="11">
         <v>2</v>
@@ -6416,7 +6414,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -6466,7 +6464,7 @@
         <v>19</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>2</v>
@@ -6497,7 +6495,7 @@
         <v>59</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -6524,7 +6522,7 @@
         <v>59</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -6564,7 +6562,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="5"/>
@@ -6583,7 +6581,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
@@ -6649,10 +6647,10 @@
         <v>72</v>
       </c>
       <c r="D73" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>822</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>823</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>578</v>
@@ -6661,7 +6659,7 @@
         <v>3</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -6675,10 +6673,10 @@
         <v>73</v>
       </c>
       <c r="D74" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>822</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>823</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>184</v>
@@ -6699,7 +6697,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>585</v>
@@ -6723,10 +6721,10 @@
         <v>75</v>
       </c>
       <c r="D76" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>822</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>823</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>99</v>
